--- a/01-Report/mic-parameter/sound-analysis/tail-timer-simulation.xlsx
+++ b/01-Report/mic-parameter/sound-analysis/tail-timer-simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TM\Master_TM_DataCollar\01-Report\mic-parameter\sound-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3FBE04-0626-4F81-B7D7-C623A0A26150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D46B4E-FE50-4AF9-A148-66093B0BBC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DECEEF5B-F140-479F-A32C-E01E8B4ACBCA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DECEEF5B-F140-479F-A32C-E01E8B4ACBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Tail timer influence simulation</t>
   </si>
@@ -89,38 +89,41 @@
     <t>Simple events</t>
   </si>
   <si>
-    <t>Duration value 1[s]</t>
-  </si>
-  <si>
-    <t>Interval [s]</t>
-  </si>
-  <si>
-    <t>Duration value [s]</t>
-  </si>
-  <si>
     <t>Infinite</t>
   </si>
   <si>
-    <t>Data [Mo]</t>
-  </si>
-  <si>
-    <t>Mic sleep mode current [uA]</t>
-  </si>
-  <si>
-    <t>Mic low power mode current [uA]</t>
-  </si>
-  <si>
     <t>Test duration [s]</t>
   </si>
   <si>
-    <t>I_average [uA]</t>
+    <t>Sleep mode current [uA]</t>
+  </si>
+  <si>
+    <t>Saving mode current [uA]</t>
+  </si>
+  <si>
+    <t>I_average [mA]</t>
+  </si>
+  <si>
+    <t>Data [MB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Random distribution in min/max range </t>
+  </si>
+  <si>
+    <t>Duration value* [s]</t>
+  </si>
+  <si>
+    <t>Duration value* 1[s]</t>
+  </si>
+  <si>
+    <t>Interval* [s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +143,14 @@
       <b/>
       <u/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -166,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,6 +211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF75BB4-7F93-4F7D-9A0E-9951C99B88B3}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,9 +558,7 @@
     <col min="2" max="2" width="7.90625" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" customWidth="1"/>
     <col min="7" max="7" width="13.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="15.90625" customWidth="1"/>
+    <col min="9" max="11" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.5">
@@ -580,19 +590,20 @@
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -614,8 +625,8 @@
         <v>1.5035835989472317</v>
       </c>
       <c r="G4" s="6">
-        <f>(($B$15*($B$17-E4)+($B$16*E4))/$B$17)</f>
-        <v>10.44876544690228</v>
+        <f>(($B$15*($B$17-E4)+($B$16*E4))/$B$17)/1000</f>
+        <v>0.40888161064662132</v>
       </c>
       <c r="I4" s="6">
         <v>1.0722372266205213</v>
@@ -638,16 +649,16 @@
         <v>5</v>
       </c>
       <c r="E5" s="7">
-        <f>$B$4*D5+SUM($J$4:$J$15)+SUM($K$4:$K$14)+D5</f>
-        <v>130.26058069750002</v>
+        <f>$B$4*D5+SUM($J$4:$J$15)+SUM($K$4:$K$15)+D5</f>
+        <v>130.8105806975</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" ref="F5:F10" si="0">E5*$B$14/POWER(10,6)</f>
-        <v>4.1683385823200005</v>
+        <v>4.1859385823200004</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G10" si="1">(($B$15*($B$17-E5)+($B$16*E5))/$B$17)</f>
-        <v>13.016367904839584</v>
+        <f>(($B$15*($B$17-E5)+($B$16*E5))/$B$17)/1000</f>
+        <v>0.44429638025652129</v>
       </c>
       <c r="I5" s="6">
         <v>0.43516708882966182</v>
@@ -670,16 +681,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:E9" si="2">$B$4*D6+SUM($J$4:$J$15)+SUM($K$4:$K$14)+D6</f>
-        <v>235.26058069750002</v>
+        <f t="shared" ref="E6:E10" si="1">$B$4*D6+SUM($J$4:$J$15)+SUM($K$4:$K$15)+D6</f>
+        <v>235.8105806975</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>7.5283385823200009</v>
+        <v>7.5459385823199998</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>16.253867904839584</v>
+        <f>(($B$15*($B$17-E6)+($B$16*E6))/$B$17)/1000</f>
+        <v>0.48865800525652126</v>
       </c>
       <c r="I6" s="6">
         <v>0.68400807891693727</v>
@@ -702,16 +713,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="2"/>
-        <v>655.26058069750002</v>
+        <f t="shared" si="1"/>
+        <v>655.81058069750009</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>20.968338582320001</v>
+        <v>20.985938582319999</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>29.203867904839584</v>
+        <f>(($B$15*($B$17-E7)+($B$16*E7))/$B$17)/1000</f>
+        <v>0.66610450525652132</v>
       </c>
       <c r="I7" s="6">
         <v>1.0340525354183039</v>
@@ -734,16 +745,16 @@
         <v>45</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="2"/>
-        <v>970.26058069750002</v>
+        <f t="shared" si="1"/>
+        <v>970.81058069750009</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>31.04833858232</v>
+        <v>31.065938582320001</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>38.916367904839582</v>
+        <f>(($B$15*($B$17-E8)+($B$16*E8))/$B$17)/1000</f>
+        <v>0.79918938025652131</v>
       </c>
       <c r="I8" s="6">
         <v>0.4692727667224349</v>
@@ -766,16 +777,16 @@
         <v>60</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" si="2"/>
-        <v>1285.2605806975</v>
+        <f t="shared" si="1"/>
+        <v>1285.8105806975</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>41.128338582319998</v>
+        <v>41.145938582319999</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>48.628867904839581</v>
+        <f>(($B$15*($B$17-E9)+($B$16*E9))/$B$17)/1000</f>
+        <v>0.93227425525652119</v>
       </c>
       <c r="I9" s="6">
         <v>0.39863173855261874</v>
@@ -795,9 +806,10 @@
         <v>4.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7">
+        <f>B17</f>
         <v>3600</v>
       </c>
       <c r="F10" s="6">
@@ -805,8 +817,8 @@
         <v>115.2</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>(($B$15*($B$17-E10)+($B$16*E10))/$B$17)/1000</f>
+        <v>1.91</v>
       </c>
       <c r="I10" s="6">
         <v>1.542924880043826</v>
@@ -889,10 +901,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <v>389.03</v>
       </c>
       <c r="I15" s="6">
         <v>0.57113130108885479</v>
@@ -900,14 +912,16 @@
       <c r="J15" s="6">
         <v>1.2652560333175624</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>120</v>
+        <v>1910</v>
       </c>
       <c r="I16" s="6">
         <v>1.9560413962556114</v>
@@ -916,7 +930,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>3600</v>
@@ -961,11 +975,21 @@
         <v>0.64849921091917007</v>
       </c>
       <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>